--- a/Income/ABMD_inc.xlsx
+++ b/Income/ABMD_inc.xlsx
@@ -3507,16 +3507,16 @@
         <v>0.3096</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.3098</v>
+        <v>0.3101</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.3081</v>
+        <v>0.3084</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.3208</v>
+        <v>0.321</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.3268</v>
+        <v>0.3271</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.3236</v>
